--- a/data/pca/factorExposure/factorExposure_2012-07-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-17.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01833840074820144</v>
+        <v>0.02309844679583071</v>
       </c>
       <c r="C2">
-        <v>0.02793081505493274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02449955126494844</v>
+      </c>
+      <c r="D2">
+        <v>-0.005004930872048239</v>
+      </c>
+      <c r="E2">
+        <v>-0.01762869760490058</v>
+      </c>
+      <c r="F2">
+        <v>-0.005119305481086324</v>
+      </c>
+      <c r="G2">
+        <v>-0.01449177900488407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06925312130672723</v>
+        <v>0.07534625452067657</v>
       </c>
       <c r="C4">
-        <v>0.05827914456979044</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03915710310777384</v>
+      </c>
+      <c r="D4">
+        <v>-0.07102566900394135</v>
+      </c>
+      <c r="E4">
+        <v>0.002978739102208181</v>
+      </c>
+      <c r="F4">
+        <v>-0.01795627399538529</v>
+      </c>
+      <c r="G4">
+        <v>0.02705180436261768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09672694351749661</v>
+        <v>0.1122117776306856</v>
       </c>
       <c r="C6">
-        <v>0.06513011484529496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04475183825201102</v>
+      </c>
+      <c r="D6">
+        <v>-0.01529179556434141</v>
+      </c>
+      <c r="E6">
+        <v>0.007542427598110066</v>
+      </c>
+      <c r="F6">
+        <v>-0.04306133101024921</v>
+      </c>
+      <c r="G6">
+        <v>-0.008776812422605881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04517621114729438</v>
+        <v>0.05387736725192998</v>
       </c>
       <c r="C7">
-        <v>0.03426202881693388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02570232766022409</v>
+      </c>
+      <c r="D7">
+        <v>-0.03400349833670729</v>
+      </c>
+      <c r="E7">
+        <v>-0.02306022247502944</v>
+      </c>
+      <c r="F7">
+        <v>-0.02703113514842917</v>
+      </c>
+      <c r="G7">
+        <v>0.03678472455671557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0327412101183452</v>
+        <v>0.03342899336363214</v>
       </c>
       <c r="C8">
-        <v>0.02661159087610761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01712960372578804</v>
+      </c>
+      <c r="D8">
+        <v>-0.03949679885860082</v>
+      </c>
+      <c r="E8">
+        <v>-0.01100784987707104</v>
+      </c>
+      <c r="F8">
+        <v>-0.04836203008137761</v>
+      </c>
+      <c r="G8">
+        <v>-0.02444554042356413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06182615012669195</v>
+        <v>0.06927950348348778</v>
       </c>
       <c r="C9">
-        <v>0.04510228256780294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02863017567904747</v>
+      </c>
+      <c r="D9">
+        <v>-0.0721540092157683</v>
+      </c>
+      <c r="E9">
+        <v>-0.01707982474440968</v>
+      </c>
+      <c r="F9">
+        <v>-0.03299008141885081</v>
+      </c>
+      <c r="G9">
+        <v>0.009274103860518594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0302416346090617</v>
+        <v>0.04067516185270061</v>
       </c>
       <c r="C10">
-        <v>0.03712169063752147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03828576240048205</v>
+      </c>
+      <c r="D10">
+        <v>0.1841187758836936</v>
+      </c>
+      <c r="E10">
+        <v>-0.04690396399575653</v>
+      </c>
+      <c r="F10">
+        <v>-0.03072627295051041</v>
+      </c>
+      <c r="G10">
+        <v>0.02037412825455183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07024732517643152</v>
+        <v>0.07587007701445067</v>
       </c>
       <c r="C11">
-        <v>0.05254768552218415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03124818090488074</v>
+      </c>
+      <c r="D11">
+        <v>-0.06749791827344116</v>
+      </c>
+      <c r="E11">
+        <v>0.005473231908567204</v>
+      </c>
+      <c r="F11">
+        <v>-0.0361646551592394</v>
+      </c>
+      <c r="G11">
+        <v>0.03849969886777643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05292962259083649</v>
+        <v>0.06044144359413112</v>
       </c>
       <c r="C12">
-        <v>0.05108990065851256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03527304341969592</v>
+      </c>
+      <c r="D12">
+        <v>-0.0500777016797631</v>
+      </c>
+      <c r="E12">
+        <v>-0.01136342182695293</v>
+      </c>
+      <c r="F12">
+        <v>-0.02655766939657821</v>
+      </c>
+      <c r="G12">
+        <v>0.03238219486357133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.06055316177531585</v>
+        <v>0.06444234620243154</v>
       </c>
       <c r="C13">
-        <v>0.05126243981254962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03045112311008997</v>
+      </c>
+      <c r="D13">
+        <v>-0.05675686060033406</v>
+      </c>
+      <c r="E13">
+        <v>-0.004543886173327017</v>
+      </c>
+      <c r="F13">
+        <v>-0.01522294772065554</v>
+      </c>
+      <c r="G13">
+        <v>0.01626935342106649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03389866491111403</v>
+        <v>0.03876582329673582</v>
       </c>
       <c r="C14">
-        <v>0.02922894272439185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02254530749774426</v>
+      </c>
+      <c r="D14">
+        <v>-0.01169208451413547</v>
+      </c>
+      <c r="E14">
+        <v>-0.02009386073408127</v>
+      </c>
+      <c r="F14">
+        <v>-0.01850856100930532</v>
+      </c>
+      <c r="G14">
+        <v>-0.009018655733787817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.04027525848553953</v>
+        <v>0.04037909700919711</v>
       </c>
       <c r="C15">
-        <v>0.01397525950883457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.004923141304628361</v>
+      </c>
+      <c r="D15">
+        <v>-0.01956416353026009</v>
+      </c>
+      <c r="E15">
+        <v>-0.04325810176344777</v>
+      </c>
+      <c r="F15">
+        <v>0.003053328724540163</v>
+      </c>
+      <c r="G15">
+        <v>-0.02291780103239674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05789884948220797</v>
+        <v>0.06148003612440862</v>
       </c>
       <c r="C16">
-        <v>0.04346589321305627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02705055793968658</v>
+      </c>
+      <c r="D16">
+        <v>-0.05894578720005157</v>
+      </c>
+      <c r="E16">
+        <v>-0.0009187970803818183</v>
+      </c>
+      <c r="F16">
+        <v>-0.0292686920684376</v>
+      </c>
+      <c r="G16">
+        <v>0.02227071545996253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06291042637179867</v>
+        <v>0.0615780640667775</v>
       </c>
       <c r="C20">
-        <v>0.03664502217914573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01814695891101897</v>
+      </c>
+      <c r="D20">
+        <v>-0.04939245085407183</v>
+      </c>
+      <c r="E20">
+        <v>-0.02064182401715546</v>
+      </c>
+      <c r="F20">
+        <v>-0.02523848397146934</v>
+      </c>
+      <c r="G20">
+        <v>0.02444329087965561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02672441224129963</v>
+        <v>0.02313882426781167</v>
       </c>
       <c r="C21">
-        <v>-7.656941098760664e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01077525422953137</v>
+      </c>
+      <c r="D21">
+        <v>-0.03726720233047907</v>
+      </c>
+      <c r="E21">
+        <v>-0.09226799504718611</v>
+      </c>
+      <c r="F21">
+        <v>0.009717344594274804</v>
+      </c>
+      <c r="G21">
+        <v>-0.01995779273342902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06978824271925894</v>
+        <v>0.07029786041708805</v>
       </c>
       <c r="C22">
-        <v>0.0778084256921574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04868386104184783</v>
+      </c>
+      <c r="D22">
+        <v>-0.1085076237949433</v>
+      </c>
+      <c r="E22">
+        <v>-0.6024704893569118</v>
+      </c>
+      <c r="F22">
+        <v>0.15942529331688</v>
+      </c>
+      <c r="G22">
+        <v>-0.05816755014731691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.07053471625982181</v>
+        <v>0.07100404956991799</v>
       </c>
       <c r="C23">
-        <v>0.07732528572778172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04812110592141416</v>
+      </c>
+      <c r="D23">
+        <v>-0.1096470720806289</v>
+      </c>
+      <c r="E23">
+        <v>-0.6015827870924192</v>
+      </c>
+      <c r="F23">
+        <v>0.1591140891909145</v>
+      </c>
+      <c r="G23">
+        <v>-0.05966438686888378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0643757668082946</v>
+        <v>0.0723859436688114</v>
       </c>
       <c r="C24">
-        <v>0.05094383656488067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03236787813634777</v>
+      </c>
+      <c r="D24">
+        <v>-0.06613544221090896</v>
+      </c>
+      <c r="E24">
+        <v>-0.009030191175923527</v>
+      </c>
+      <c r="F24">
+        <v>-0.04309933635365085</v>
+      </c>
+      <c r="G24">
+        <v>0.0164095173837169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06549360238549444</v>
+        <v>0.07110170932361493</v>
       </c>
       <c r="C25">
-        <v>0.05724133898333747</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03813523738440715</v>
+      </c>
+      <c r="D25">
+        <v>-0.06391285937114358</v>
+      </c>
+      <c r="E25">
+        <v>-0.009186987102664907</v>
+      </c>
+      <c r="F25">
+        <v>-0.03946834516882377</v>
+      </c>
+      <c r="G25">
+        <v>0.0143937899043214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03906961889339453</v>
+        <v>0.04002035199011018</v>
       </c>
       <c r="C26">
-        <v>0.01327966614904444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005040587962821049</v>
+      </c>
+      <c r="D26">
+        <v>-0.01968332486113212</v>
+      </c>
+      <c r="E26">
+        <v>-0.03731084489082547</v>
+      </c>
+      <c r="F26">
+        <v>-0.0156416281768536</v>
+      </c>
+      <c r="G26">
+        <v>0.01676365903844807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05726240969439745</v>
+        <v>0.07655589536752322</v>
       </c>
       <c r="C28">
-        <v>0.07628776594174835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07660053251863466</v>
+      </c>
+      <c r="D28">
+        <v>0.3233398459523582</v>
+      </c>
+      <c r="E28">
+        <v>-0.04833455870859259</v>
+      </c>
+      <c r="F28">
+        <v>-0.05418525088198461</v>
+      </c>
+      <c r="G28">
+        <v>-0.02912487880384015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03691117224799072</v>
+        <v>0.0422461786468185</v>
       </c>
       <c r="C29">
-        <v>0.03252753869375424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02545186870383713</v>
+      </c>
+      <c r="D29">
+        <v>-0.009819095379651713</v>
+      </c>
+      <c r="E29">
+        <v>-0.04400392079975413</v>
+      </c>
+      <c r="F29">
+        <v>-0.01057571223293674</v>
+      </c>
+      <c r="G29">
+        <v>0.004234477058649267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1153699425609893</v>
+        <v>0.1277475038413518</v>
       </c>
       <c r="C30">
-        <v>0.09782908582337986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0663147766468191</v>
+      </c>
+      <c r="D30">
+        <v>-0.1058839415677341</v>
+      </c>
+      <c r="E30">
+        <v>-0.03986781624778173</v>
+      </c>
+      <c r="F30">
+        <v>-0.005351212423805742</v>
+      </c>
+      <c r="G30">
+        <v>0.001800705970610423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03760354432294267</v>
+        <v>0.04268896678263436</v>
       </c>
       <c r="C31">
-        <v>0.02430402379371012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01538280574528393</v>
+      </c>
+      <c r="D31">
+        <v>-0.02999762117998108</v>
+      </c>
+      <c r="E31">
+        <v>-0.01985280076760209</v>
+      </c>
+      <c r="F31">
+        <v>-0.01631355805461529</v>
+      </c>
+      <c r="G31">
+        <v>0.01914367101137191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03237974276450475</v>
+        <v>0.03329642964836187</v>
       </c>
       <c r="C32">
-        <v>0.02862065226228173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01811563295542894</v>
+      </c>
+      <c r="D32">
+        <v>-0.01417260825379501</v>
+      </c>
+      <c r="E32">
+        <v>-0.06219194705484</v>
+      </c>
+      <c r="F32">
+        <v>0.01404295573184177</v>
+      </c>
+      <c r="G32">
+        <v>-0.01081443213906018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07631459485361444</v>
+        <v>0.08721728237377596</v>
       </c>
       <c r="C33">
-        <v>0.0502039705546567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03254997506764924</v>
+      </c>
+      <c r="D33">
+        <v>-0.06282567265002335</v>
+      </c>
+      <c r="E33">
+        <v>-0.01471754992378184</v>
+      </c>
+      <c r="F33">
+        <v>-0.002206972442835298</v>
+      </c>
+      <c r="G33">
+        <v>0.02877134835718784</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05149944800896648</v>
+        <v>0.05655031724415365</v>
       </c>
       <c r="C34">
-        <v>0.03251344028915581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01859711832156171</v>
+      </c>
+      <c r="D34">
+        <v>-0.05732131363313056</v>
+      </c>
+      <c r="E34">
+        <v>-0.005241664536267449</v>
+      </c>
+      <c r="F34">
+        <v>-0.0284391080102837</v>
+      </c>
+      <c r="G34">
+        <v>0.01525737835142613</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03807425977603121</v>
+        <v>0.03980566247150026</v>
       </c>
       <c r="C35">
-        <v>0.01328554978417926</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005967910636286505</v>
+      </c>
+      <c r="D35">
+        <v>-0.01075186832266197</v>
+      </c>
+      <c r="E35">
+        <v>-0.03213823931724005</v>
+      </c>
+      <c r="F35">
+        <v>0.006299974348494999</v>
+      </c>
+      <c r="G35">
+        <v>0.009950930483976482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01903262945355378</v>
+        <v>0.02246071655246817</v>
       </c>
       <c r="C36">
-        <v>0.01523109085172378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01004847740225723</v>
+      </c>
+      <c r="D36">
+        <v>-0.01841255109497104</v>
+      </c>
+      <c r="E36">
+        <v>-0.03549342087068445</v>
+      </c>
+      <c r="F36">
+        <v>-0.01464627094553144</v>
+      </c>
+      <c r="G36">
+        <v>0.01611420676442644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03772493005610503</v>
+        <v>0.04002065000599826</v>
       </c>
       <c r="C38">
-        <v>0.01291531788106344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003844581182367385</v>
+      </c>
+      <c r="D38">
+        <v>-0.01112302868674831</v>
+      </c>
+      <c r="E38">
+        <v>-0.06048495587488843</v>
+      </c>
+      <c r="F38">
+        <v>0.02610662219735786</v>
+      </c>
+      <c r="G38">
+        <v>-0.02813643861337339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08808827912688208</v>
+        <v>0.0991115972864912</v>
       </c>
       <c r="C39">
-        <v>0.07939712771404495</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05359772614739195</v>
+      </c>
+      <c r="D39">
+        <v>-0.08558798021040903</v>
+      </c>
+      <c r="E39">
+        <v>0.01613233258552499</v>
+      </c>
+      <c r="F39">
+        <v>-0.02296433405801885</v>
+      </c>
+      <c r="G39">
+        <v>-0.005871129835099608</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.0681254935787141</v>
+        <v>0.07478779299501144</v>
       </c>
       <c r="C40">
-        <v>0.05705713094531977</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.04004140665016912</v>
+      </c>
+      <c r="D40">
+        <v>-0.006328815793357242</v>
+      </c>
+      <c r="E40">
+        <v>-0.03596239862144533</v>
+      </c>
+      <c r="F40">
+        <v>0.03953499804927947</v>
+      </c>
+      <c r="G40">
+        <v>-0.04912536284728952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03876565615736735</v>
+        <v>0.04206713127269161</v>
       </c>
       <c r="C41">
-        <v>0.01578684846021547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.007831744417784224</v>
+      </c>
+      <c r="D41">
+        <v>-0.0418322320556869</v>
+      </c>
+      <c r="E41">
+        <v>-0.008330403080905489</v>
+      </c>
+      <c r="F41">
+        <v>0.01205191972409592</v>
+      </c>
+      <c r="G41">
+        <v>-0.004147891311042812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04089784911460805</v>
+        <v>0.04889162891932473</v>
       </c>
       <c r="C43">
-        <v>0.03643372898716409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02338474154527661</v>
+      </c>
+      <c r="D43">
+        <v>-0.02846116415305337</v>
+      </c>
+      <c r="E43">
+        <v>-0.01907576873895054</v>
+      </c>
+      <c r="F43">
+        <v>-0.009030309129073827</v>
+      </c>
+      <c r="G43">
+        <v>0.01499628685880473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08878186013634019</v>
+        <v>0.08961636567067326</v>
       </c>
       <c r="C44">
-        <v>0.09107853233293056</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06066908901907456</v>
+      </c>
+      <c r="D44">
+        <v>-0.06580826488301106</v>
+      </c>
+      <c r="E44">
+        <v>-0.09161422870161774</v>
+      </c>
+      <c r="F44">
+        <v>-0.05267586985073873</v>
+      </c>
+      <c r="G44">
+        <v>-0.00223261686881494</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02839704888018185</v>
+        <v>0.02876466405203772</v>
       </c>
       <c r="C46">
-        <v>0.01962991009151444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01247706087210861</v>
+      </c>
+      <c r="D46">
+        <v>-0.033542639981162</v>
+      </c>
+      <c r="E46">
+        <v>-0.02246338555518257</v>
+      </c>
+      <c r="F46">
+        <v>-0.02082573730020597</v>
+      </c>
+      <c r="G46">
+        <v>-0.007619039836421112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.03026676294979986</v>
+        <v>0.03257337569708955</v>
       </c>
       <c r="C47">
-        <v>0.02082041589243921</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01321287116802687</v>
+      </c>
+      <c r="D47">
+        <v>-0.01802016382336141</v>
+      </c>
+      <c r="E47">
+        <v>-0.05021302004633663</v>
+      </c>
+      <c r="F47">
+        <v>-0.01375482236053861</v>
+      </c>
+      <c r="G47">
+        <v>0.02646721618487433</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02782983160562626</v>
+        <v>0.03162409365735389</v>
       </c>
       <c r="C48">
-        <v>0.01826803743871189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01156918897480948</v>
+      </c>
+      <c r="D48">
+        <v>-0.02783840985162849</v>
+      </c>
+      <c r="E48">
+        <v>-0.04217168891722129</v>
+      </c>
+      <c r="F48">
+        <v>-0.01397887461303566</v>
+      </c>
+      <c r="G48">
+        <v>0.007710298592908627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1568883599344323</v>
+        <v>0.176972274008184</v>
       </c>
       <c r="C49">
-        <v>0.09354020679387792</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05873695607674503</v>
+      </c>
+      <c r="D49">
+        <v>-0.008780828492966809</v>
+      </c>
+      <c r="E49">
+        <v>0.1142897763416281</v>
+      </c>
+      <c r="F49">
+        <v>-0.00987786389054107</v>
+      </c>
+      <c r="G49">
+        <v>0.07713572098592866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03228319265772443</v>
+        <v>0.03967131743125821</v>
       </c>
       <c r="C50">
-        <v>0.02598975956783791</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02129546237349364</v>
+      </c>
+      <c r="D50">
+        <v>-0.04043561401989181</v>
+      </c>
+      <c r="E50">
+        <v>-0.04465569083889984</v>
+      </c>
+      <c r="F50">
+        <v>-0.02883417694341615</v>
+      </c>
+      <c r="G50">
+        <v>0.01725476456397227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0254304791897207</v>
+        <v>0.02626127860912494</v>
       </c>
       <c r="C51">
-        <v>0.01869034189787094</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.01139031199665498</v>
+      </c>
+      <c r="D51">
+        <v>-0.02606717924167508</v>
+      </c>
+      <c r="E51">
+        <v>-0.01338478666587944</v>
+      </c>
+      <c r="F51">
+        <v>-0.009051028855301905</v>
+      </c>
+      <c r="G51">
+        <v>-0.008378189673246791</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1426460076332428</v>
+        <v>0.1600623219681742</v>
       </c>
       <c r="C53">
-        <v>0.1014603353940909</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06941210002440036</v>
+      </c>
+      <c r="D53">
+        <v>-0.02429697203271096</v>
+      </c>
+      <c r="E53">
+        <v>0.03455460088258125</v>
+      </c>
+      <c r="F53">
+        <v>-0.03011120582363462</v>
+      </c>
+      <c r="G53">
+        <v>0.02782664881599473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05206762534117209</v>
+        <v>0.05590896037940269</v>
       </c>
       <c r="C54">
-        <v>0.02530610081867567</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01242027156540465</v>
+      </c>
+      <c r="D54">
+        <v>-0.03665058641088652</v>
+      </c>
+      <c r="E54">
+        <v>-0.04267113499156115</v>
+      </c>
+      <c r="F54">
+        <v>-0.01218843966240138</v>
+      </c>
+      <c r="G54">
+        <v>0.00680681456628584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0942016415032277</v>
+        <v>0.1004524206100381</v>
       </c>
       <c r="C55">
-        <v>0.06282412852315011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04256000056912565</v>
+      </c>
+      <c r="D55">
+        <v>-0.03342281442958393</v>
+      </c>
+      <c r="E55">
+        <v>-0.007131415147977842</v>
+      </c>
+      <c r="F55">
+        <v>-0.03135606063694989</v>
+      </c>
+      <c r="G55">
+        <v>0.008354882470364942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1379286219711603</v>
+        <v>0.1587208190629707</v>
       </c>
       <c r="C56">
-        <v>0.1092710890283679</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07671424134264179</v>
+      </c>
+      <c r="D56">
+        <v>-0.01830781315549313</v>
+      </c>
+      <c r="E56">
+        <v>0.0364236462736326</v>
+      </c>
+      <c r="F56">
+        <v>-0.06996059443579637</v>
+      </c>
+      <c r="G56">
+        <v>0.03927360027698891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1165442917968222</v>
+        <v>0.1082517389512279</v>
       </c>
       <c r="C58">
-        <v>0.03220339189988343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0004639132573766832</v>
+      </c>
+      <c r="D58">
+        <v>-0.05244019955115589</v>
+      </c>
+      <c r="E58">
+        <v>-0.181318055571893</v>
+      </c>
+      <c r="F58">
+        <v>-0.05290718690943294</v>
+      </c>
+      <c r="G58">
+        <v>0.0347860464340666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1095508800725685</v>
+        <v>0.1474338756367683</v>
       </c>
       <c r="C59">
-        <v>0.08633842595543412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08455209785242621</v>
+      </c>
+      <c r="D59">
+        <v>0.3483555703237294</v>
+      </c>
+      <c r="E59">
+        <v>-0.044504142966367</v>
+      </c>
+      <c r="F59">
+        <v>0.02020441588089932</v>
+      </c>
+      <c r="G59">
+        <v>0.005833104062545922</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1835555237979097</v>
+        <v>0.2123949201075201</v>
       </c>
       <c r="C60">
-        <v>0.1152312848703574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.0786723827257186</v>
+      </c>
+      <c r="D60">
+        <v>-0.01758244700167143</v>
+      </c>
+      <c r="E60">
+        <v>0.08036643138766096</v>
+      </c>
+      <c r="F60">
+        <v>-0.03562065381372382</v>
+      </c>
+      <c r="G60">
+        <v>-0.02722546998239755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07702514196656839</v>
+        <v>0.08381812103013098</v>
       </c>
       <c r="C61">
-        <v>0.05800382033527871</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03805234117665032</v>
+      </c>
+      <c r="D61">
+        <v>-0.06162503656287923</v>
+      </c>
+      <c r="E61">
+        <v>0.01113637444020732</v>
+      </c>
+      <c r="F61">
+        <v>-0.007413125203328998</v>
+      </c>
+      <c r="G61">
+        <v>0.03372532207309609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1185726625402481</v>
+        <v>0.1385930907930942</v>
       </c>
       <c r="C62">
-        <v>0.08322177734957957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05943042910923137</v>
+      </c>
+      <c r="D62">
+        <v>-0.02915079090669402</v>
+      </c>
+      <c r="E62">
+        <v>0.05325346516976674</v>
+      </c>
+      <c r="F62">
+        <v>-0.03259398035626203</v>
+      </c>
+      <c r="G62">
+        <v>-0.008344467124137197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04829961390534311</v>
+        <v>0.05127751843264335</v>
       </c>
       <c r="C63">
-        <v>0.02870463342549865</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01738084641268887</v>
+      </c>
+      <c r="D63">
+        <v>-0.031480563485381</v>
+      </c>
+      <c r="E63">
+        <v>-0.04603585601044494</v>
+      </c>
+      <c r="F63">
+        <v>-0.01585671640650364</v>
+      </c>
+      <c r="G63">
+        <v>-0.02369941780938179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1060306605484152</v>
+        <v>0.1101730821882532</v>
       </c>
       <c r="C64">
-        <v>0.04599373651294865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02382537740138154</v>
+      </c>
+      <c r="D64">
+        <v>-0.04932521094785296</v>
+      </c>
+      <c r="E64">
+        <v>-0.03102363952884151</v>
+      </c>
+      <c r="F64">
+        <v>-0.05133454172638197</v>
+      </c>
+      <c r="G64">
+        <v>-0.01383563468552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.107766833629261</v>
+        <v>0.1210362418071787</v>
       </c>
       <c r="C65">
-        <v>0.06454371701948428</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04370757776934643</v>
+      </c>
+      <c r="D65">
+        <v>-0.01798610759666545</v>
+      </c>
+      <c r="E65">
+        <v>0.01082707189682181</v>
+      </c>
+      <c r="F65">
+        <v>-0.06421858466224825</v>
+      </c>
+      <c r="G65">
+        <v>-0.03209970593951214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1358373909664496</v>
+        <v>0.1514776250692824</v>
       </c>
       <c r="C66">
-        <v>0.08954836038557541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05645137353979706</v>
+      </c>
+      <c r="D66">
+        <v>-0.1198244868276938</v>
+      </c>
+      <c r="E66">
+        <v>0.05067871863658318</v>
+      </c>
+      <c r="F66">
+        <v>-0.04478370707528009</v>
+      </c>
+      <c r="G66">
+        <v>0.01894190554820055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06942011569197477</v>
+        <v>0.0735494795134249</v>
       </c>
       <c r="C67">
-        <v>0.0247351592984274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.008673403851515176</v>
+      </c>
+      <c r="D67">
+        <v>-0.0245194987658457</v>
+      </c>
+      <c r="E67">
+        <v>-0.02813370634863548</v>
+      </c>
+      <c r="F67">
+        <v>0.01109557987200163</v>
+      </c>
+      <c r="G67">
+        <v>-0.001818595541991441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05559608069143734</v>
+        <v>0.07024254356404844</v>
       </c>
       <c r="C68">
-        <v>0.04875735602134695</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04836452990535364</v>
+      </c>
+      <c r="D68">
+        <v>0.2636818194815712</v>
+      </c>
+      <c r="E68">
+        <v>-0.04815154826460052</v>
+      </c>
+      <c r="F68">
+        <v>-0.012913614631593</v>
+      </c>
+      <c r="G68">
+        <v>-0.0005765485481822446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04763614897624954</v>
+        <v>0.05085444281255869</v>
       </c>
       <c r="C69">
-        <v>0.02711200544942444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01265812016304117</v>
+      </c>
+      <c r="D69">
+        <v>-0.03585649088504204</v>
+      </c>
+      <c r="E69">
+        <v>-0.01549854543365498</v>
+      </c>
+      <c r="F69">
+        <v>-0.00517512378688569</v>
+      </c>
+      <c r="G69">
+        <v>0.01036981691784642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003598002528883839</v>
+        <v>0.01058445230612201</v>
       </c>
       <c r="C70">
-        <v>-0.001889539466108316</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.001057873806541764</v>
+      </c>
+      <c r="D70">
+        <v>0.001547628553100793</v>
+      </c>
+      <c r="E70">
+        <v>0.006132908662894296</v>
+      </c>
+      <c r="F70">
+        <v>0.00861360655925765</v>
+      </c>
+      <c r="G70">
+        <v>-0.0003700256935064257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05877563353188205</v>
+        <v>0.07367950988352688</v>
       </c>
       <c r="C71">
-        <v>0.04904577094141496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04848954654929639</v>
+      </c>
+      <c r="D71">
+        <v>0.302393229091265</v>
+      </c>
+      <c r="E71">
+        <v>-0.04845390150415209</v>
+      </c>
+      <c r="F71">
+        <v>-0.02614185509717398</v>
+      </c>
+      <c r="G71">
+        <v>0.003706983057580218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1290701028316462</v>
+        <v>0.1498992064949634</v>
       </c>
       <c r="C72">
-        <v>0.07626537822098853</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05130524471344742</v>
+      </c>
+      <c r="D72">
+        <v>-0.01003919631873355</v>
+      </c>
+      <c r="E72">
+        <v>0.1072566363992241</v>
+      </c>
+      <c r="F72">
+        <v>0.1399420245728437</v>
+      </c>
+      <c r="G72">
+        <v>-0.1214415232086863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.243482289615977</v>
+        <v>0.26843049498528</v>
       </c>
       <c r="C73">
-        <v>0.138430708140361</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08728823000615898</v>
+      </c>
+      <c r="D73">
+        <v>-0.06138448019303017</v>
+      </c>
+      <c r="E73">
+        <v>0.1789545340856187</v>
+      </c>
+      <c r="F73">
+        <v>-0.06924274942607274</v>
+      </c>
+      <c r="G73">
+        <v>0.1619836257687725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07681469708969732</v>
+        <v>0.08854060999744898</v>
       </c>
       <c r="C74">
-        <v>0.08058746287313331</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06184075725797286</v>
+      </c>
+      <c r="D74">
+        <v>-0.03590356194218556</v>
+      </c>
+      <c r="E74">
+        <v>0.005044527768276618</v>
+      </c>
+      <c r="F74">
+        <v>0.0008549450032317551</v>
+      </c>
+      <c r="G74">
+        <v>0.03313391643583527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09733160328307766</v>
+        <v>0.1086360605174459</v>
       </c>
       <c r="C75">
-        <v>0.07310202609385459</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04489223159575902</v>
+      </c>
+      <c r="D75">
+        <v>-0.02505249322718936</v>
+      </c>
+      <c r="E75">
+        <v>-0.01120309350930862</v>
+      </c>
+      <c r="F75">
+        <v>-0.07775210309199986</v>
+      </c>
+      <c r="G75">
+        <v>0.01432342277031468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1192425819059803</v>
+        <v>0.1336480359415606</v>
       </c>
       <c r="C76">
-        <v>0.09905672662900038</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06881863766668581</v>
+      </c>
+      <c r="D76">
+        <v>-0.05819726208858493</v>
+      </c>
+      <c r="E76">
+        <v>-0.005288963981646318</v>
+      </c>
+      <c r="F76">
+        <v>-0.07661572011756058</v>
+      </c>
+      <c r="G76">
+        <v>0.02011803700970624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09276650056562154</v>
+        <v>0.1003487556395684</v>
       </c>
       <c r="C77">
-        <v>0.06577192990036275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.03321838753215502</v>
+      </c>
+      <c r="D77">
+        <v>-0.04722157241746127</v>
+      </c>
+      <c r="E77">
+        <v>0.0865876287708694</v>
+      </c>
+      <c r="F77">
+        <v>-0.3030368797381865</v>
+      </c>
+      <c r="G77">
+        <v>-0.8799308892902494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08424693223239332</v>
+        <v>0.09979157225005111</v>
       </c>
       <c r="C78">
-        <v>0.04671367540523828</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03086969360104781</v>
+      </c>
+      <c r="D78">
+        <v>-0.0742445066960228</v>
+      </c>
+      <c r="E78">
+        <v>-0.03860866276831448</v>
+      </c>
+      <c r="F78">
+        <v>0.01128417073671541</v>
+      </c>
+      <c r="G78">
+        <v>-0.02115207987363674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1349900617762348</v>
+        <v>0.1510249177404779</v>
       </c>
       <c r="C79">
-        <v>0.100881290882181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06496166838844418</v>
+      </c>
+      <c r="D79">
+        <v>-0.02888365284442829</v>
+      </c>
+      <c r="E79">
+        <v>0.01896573705388287</v>
+      </c>
+      <c r="F79">
+        <v>-0.04375874105731758</v>
+      </c>
+      <c r="G79">
+        <v>0.02182862286492614</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04497650218231369</v>
+        <v>0.03989881524162311</v>
       </c>
       <c r="C80">
-        <v>0.01815737967528532</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005854328056465405</v>
+      </c>
+      <c r="D80">
+        <v>-0.02412598869880063</v>
+      </c>
+      <c r="E80">
+        <v>-0.01420926615996353</v>
+      </c>
+      <c r="F80">
+        <v>0.03179355726523497</v>
+      </c>
+      <c r="G80">
+        <v>0.04110501693321478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1089750294106174</v>
+        <v>0.1205249728707477</v>
       </c>
       <c r="C81">
-        <v>0.07958306428654853</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05161189878370271</v>
+      </c>
+      <c r="D81">
+        <v>-0.03956586617908004</v>
+      </c>
+      <c r="E81">
+        <v>0.003542160089180136</v>
+      </c>
+      <c r="F81">
+        <v>-0.04522302216604603</v>
+      </c>
+      <c r="G81">
+        <v>0.05457825848638273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1140322308197559</v>
+        <v>0.1260009374968023</v>
       </c>
       <c r="C82">
-        <v>0.09332934034104624</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06064025061058815</v>
+      </c>
+      <c r="D82">
+        <v>-0.03954075353974312</v>
+      </c>
+      <c r="E82">
+        <v>0.02258320552440228</v>
+      </c>
+      <c r="F82">
+        <v>-0.0616647275443499</v>
+      </c>
+      <c r="G82">
+        <v>0.06070988150964269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07226893909216668</v>
+        <v>0.07024637626466505</v>
       </c>
       <c r="C83">
-        <v>0.01545098143851059</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.005057901812356531</v>
+      </c>
+      <c r="D83">
+        <v>-0.04127126590686318</v>
+      </c>
+      <c r="E83">
+        <v>-0.01437576053913309</v>
+      </c>
+      <c r="F83">
+        <v>0.0051647011715863</v>
+      </c>
+      <c r="G83">
+        <v>0.05749686967775378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02458212256908326</v>
+        <v>0.03288245342275497</v>
       </c>
       <c r="C84">
-        <v>0.01898847455036353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.0186955556765509</v>
+      </c>
+      <c r="D84">
+        <v>-0.01247867662339362</v>
+      </c>
+      <c r="E84">
+        <v>-0.007762652508602621</v>
+      </c>
+      <c r="F84">
+        <v>0.0369986097202792</v>
+      </c>
+      <c r="G84">
+        <v>0.0358483410490366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.11805623032748</v>
+        <v>0.1184062856808966</v>
       </c>
       <c r="C85">
-        <v>0.07926955130414702</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04510239571321439</v>
+      </c>
+      <c r="D85">
+        <v>-0.03821346871024903</v>
+      </c>
+      <c r="E85">
+        <v>-0.01061224160458716</v>
+      </c>
+      <c r="F85">
+        <v>-0.09014019895203677</v>
+      </c>
+      <c r="G85">
+        <v>0.005408089083948483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04355990273875931</v>
+        <v>0.04574599412679949</v>
       </c>
       <c r="C86">
-        <v>0.02390668042001231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01103677648804128</v>
+      </c>
+      <c r="D86">
+        <v>-0.01453874064532024</v>
+      </c>
+      <c r="E86">
+        <v>-0.04663091216812931</v>
+      </c>
+      <c r="F86">
+        <v>-0.01089133412853828</v>
+      </c>
+      <c r="G86">
+        <v>-0.008664374612047146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1114908615452389</v>
+        <v>0.1185890752203842</v>
       </c>
       <c r="C87">
-        <v>0.07895232595360999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04679022671164749</v>
+      </c>
+      <c r="D87">
+        <v>-0.07567363895632781</v>
+      </c>
+      <c r="E87">
+        <v>-0.007178358251553119</v>
+      </c>
+      <c r="F87">
+        <v>-0.02827700620765568</v>
+      </c>
+      <c r="G87">
+        <v>-0.09767999586830277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05311427393446419</v>
+        <v>0.05705460976816045</v>
       </c>
       <c r="C88">
-        <v>0.04190734513972305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02598277007161298</v>
+      </c>
+      <c r="D88">
+        <v>-0.02614600020767085</v>
+      </c>
+      <c r="E88">
+        <v>-0.0223055950887874</v>
+      </c>
+      <c r="F88">
+        <v>-0.007492564313634866</v>
+      </c>
+      <c r="G88">
+        <v>-0.007887467733665516</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07763768320653197</v>
+        <v>0.1065737384954855</v>
       </c>
       <c r="C89">
-        <v>0.0816583362125903</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07930579560060295</v>
+      </c>
+      <c r="D89">
+        <v>0.3231078749402813</v>
+      </c>
+      <c r="E89">
+        <v>-0.09374750826990218</v>
+      </c>
+      <c r="F89">
+        <v>-0.05451353948561401</v>
+      </c>
+      <c r="G89">
+        <v>0.008827931487716658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.07349752393887139</v>
+        <v>0.0926138343482969</v>
       </c>
       <c r="C90">
-        <v>0.07394814221776316</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06970542584796109</v>
+      </c>
+      <c r="D90">
+        <v>0.3123807337917916</v>
+      </c>
+      <c r="E90">
+        <v>-0.08092614579024152</v>
+      </c>
+      <c r="F90">
+        <v>0.0177921203881931</v>
+      </c>
+      <c r="G90">
+        <v>0.01582206785135846</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.08122541460798353</v>
+        <v>0.09026460003040594</v>
       </c>
       <c r="C91">
-        <v>0.06499071437410557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04303656156302008</v>
+      </c>
+      <c r="D91">
+        <v>-0.03003352186086138</v>
+      </c>
+      <c r="E91">
+        <v>-0.005364709156338827</v>
+      </c>
+      <c r="F91">
+        <v>-0.01804087043171354</v>
+      </c>
+      <c r="G91">
+        <v>0.03637613073339277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08639831711932804</v>
+        <v>0.1057955714477561</v>
       </c>
       <c r="C92">
-        <v>0.06562249699200778</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.0627441779163375</v>
+      </c>
+      <c r="D92">
+        <v>0.3289152249643574</v>
+      </c>
+      <c r="E92">
+        <v>-0.03104510405566924</v>
+      </c>
+      <c r="F92">
+        <v>-0.03128167002526343</v>
+      </c>
+      <c r="G92">
+        <v>-0.02209997304755137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06389534502608527</v>
+        <v>0.08650799700939728</v>
       </c>
       <c r="C93">
-        <v>0.06828817335661211</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06737684185068928</v>
+      </c>
+      <c r="D93">
+        <v>0.2985607640493617</v>
+      </c>
+      <c r="E93">
+        <v>-0.04456810988747956</v>
+      </c>
+      <c r="F93">
+        <v>-0.03762572542012543</v>
+      </c>
+      <c r="G93">
+        <v>-0.01511285408514759</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1274880007596479</v>
+        <v>0.1295280571869147</v>
       </c>
       <c r="C94">
-        <v>0.07859443373995399</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03931613259369696</v>
+      </c>
+      <c r="D94">
+        <v>-0.05723450557338933</v>
+      </c>
+      <c r="E94">
+        <v>0.02539011584177851</v>
+      </c>
+      <c r="F94">
+        <v>-0.05380175713986336</v>
+      </c>
+      <c r="G94">
+        <v>0.04185678735275674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1150881419414874</v>
+        <v>0.1197331108027385</v>
       </c>
       <c r="C95">
-        <v>0.05395847117900676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02726086073107442</v>
+      </c>
+      <c r="D95">
+        <v>-0.05950884699604276</v>
+      </c>
+      <c r="E95">
+        <v>0.01389176182679622</v>
+      </c>
+      <c r="F95">
+        <v>-0.02726437804231393</v>
+      </c>
+      <c r="G95">
+        <v>-0.01145333014171965</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1871376117999311</v>
+        <v>0.222882875698164</v>
       </c>
       <c r="C97">
-        <v>0.07273851228478131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04180531176183295</v>
+      </c>
+      <c r="D97">
+        <v>0.01437288044175598</v>
+      </c>
+      <c r="E97">
+        <v>0.2258230722914465</v>
+      </c>
+      <c r="F97">
+        <v>0.8604935312568277</v>
+      </c>
+      <c r="G97">
+        <v>-0.2361189090607372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2369737843622742</v>
+        <v>0.257832220365509</v>
       </c>
       <c r="C98">
-        <v>0.1170628261328459</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06107466498335192</v>
+      </c>
+      <c r="D98">
+        <v>-0.03553785664193367</v>
+      </c>
+      <c r="E98">
+        <v>0.1429860165743394</v>
+      </c>
+      <c r="F98">
+        <v>0.00897731252825182</v>
+      </c>
+      <c r="G98">
+        <v>0.2491386983202905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5557479851193253</v>
+        <v>0.3698328603528134</v>
       </c>
       <c r="C99">
-        <v>-0.8214636840234889</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.918480705805672</v>
+      </c>
+      <c r="D99">
+        <v>0.07121293368123532</v>
+      </c>
+      <c r="E99">
+        <v>-0.04905541518858531</v>
+      </c>
+      <c r="F99">
+        <v>-0.03863291129116382</v>
+      </c>
+      <c r="G99">
+        <v>0.001212692589630535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0371350259910927</v>
+        <v>0.04241563675459138</v>
       </c>
       <c r="C101">
-        <v>0.0326750750529082</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02550965555361055</v>
+      </c>
+      <c r="D101">
+        <v>-0.01049257401917769</v>
+      </c>
+      <c r="E101">
+        <v>-0.04311234825525961</v>
+      </c>
+      <c r="F101">
+        <v>-0.009966020503626782</v>
+      </c>
+      <c r="G101">
+        <v>0.004767556686225738</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
